--- a/2tecnolog/tables.xlsx
+++ b/2tecnolog/tables.xlsx
@@ -431,13 +431,13 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>427.23</v>
+        <v>530.79</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>1294.55</v>
+        <v>1306.9</v>
       </c>
       <c r="H2" t="n">
         <v>14</v>
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>296.99</v>
+        <v>297.01</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>256.33</v>
+        <v>318.48</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>832.21</v>
+        <v>840.15</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
@@ -480,7 +480,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="n">
-        <v>890.96</v>
+        <v>891.03</v>
       </c>
     </row>
     <row r="4">
@@ -493,13 +493,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>205.07</v>
+        <v>254.78</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>1294.55</v>
+        <v>1306.9</v>
       </c>
       <c r="H4" t="n">
         <v>14</v>
@@ -524,13 +524,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>222.16</v>
+        <v>276.01</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1479.49</v>
+        <v>1493.6</v>
       </c>
       <c r="H5" t="n">
         <v>16</v>
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>445.48</v>
+        <v>445.51</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>598.12</v>
+        <v>743.11</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>4346</v>
+        <v>4387.44</v>
       </c>
       <c r="H6" t="n">
         <v>47</v>
@@ -573,7 +573,7 @@
         <v>45</v>
       </c>
       <c r="L6" t="n">
-        <v>1336.43</v>
+        <v>1336.54</v>
       </c>
     </row>
     <row r="7">
@@ -581,13 +581,13 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>1708.91</v>
+        <v>2123.17</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>9246.799999999999</v>
+        <v>9334.99</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -599,22 +599,22 @@
         <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>2969.86</v>
+        <v>2970.09</v>
       </c>
       <c r="P7" t="n">
-        <v>28979.27</v>
+        <v>29481.95</v>
       </c>
       <c r="Q7" t="n">
         <v>2070</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>14.24</v>
       </c>
       <c r="S7" t="n">
         <v>1820</v>
       </c>
       <c r="T7" t="n">
-        <v>15.92</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8">
@@ -627,25 +627,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>94.42</v>
+        <v>138.33</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>536.77</v>
+        <v>721.83</v>
       </c>
       <c r="H8" t="n">
         <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>1559.22</v>
+        <v>2078.96</v>
       </c>
       <c r="K8" t="n">
         <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>547.1799999999999</v>
+        <v>729.58</v>
       </c>
     </row>
     <row r="9">
@@ -658,40 +658,40 @@
         <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>535.0700000000001</v>
+        <v>783.86</v>
       </c>
       <c r="E9" t="n">
         <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>1610.3</v>
+        <v>2165.49</v>
       </c>
       <c r="H9" t="n">
         <v>75</v>
       </c>
       <c r="I9" t="n">
-        <v>4677.65</v>
+        <v>6236.87</v>
       </c>
       <c r="K9" t="n">
         <v>75</v>
       </c>
       <c r="L9" t="n">
-        <v>1641.55</v>
+        <v>2188.73</v>
       </c>
       <c r="P9" t="n">
-        <v>6388.360000000001</v>
+        <v>4213.440000000001</v>
       </c>
       <c r="Q9" t="n">
         <v>2070</v>
       </c>
       <c r="R9" t="n">
-        <v>3.09</v>
+        <v>2.04</v>
       </c>
       <c r="S9" t="n">
         <v>1820</v>
       </c>
       <c r="T9" t="n">
-        <v>3.51</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="10">
@@ -699,40 +699,40 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>629.49</v>
+        <v>922.1900000000001</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>2147.07</v>
+        <v>2887.32</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>6236.87</v>
+        <v>8315.83</v>
       </c>
       <c r="K10" t="n">
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>2188.73</v>
+        <v>2918.31</v>
       </c>
       <c r="P10" t="n">
-        <v>11202.16</v>
+        <v>15043.65</v>
       </c>
       <c r="Q10" t="n">
         <v>2070</v>
       </c>
       <c r="R10" t="n">
-        <v>5.41</v>
+        <v>7.27</v>
       </c>
       <c r="S10" t="n">
         <v>1820</v>
       </c>
       <c r="T10" t="n">
-        <v>6.16</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="11">
@@ -745,40 +745,40 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>132.93</v>
+        <v>133.18</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>386.14</v>
+        <v>361.4</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>889.62</v>
+        <v>823.8099999999999</v>
       </c>
       <c r="K11" t="n">
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>393.25</v>
+        <v>364.04</v>
       </c>
       <c r="P11" t="n">
-        <v>2138.45</v>
+        <v>2227.17</v>
       </c>
       <c r="Q11" t="n">
         <v>2070</v>
       </c>
       <c r="R11" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="S11" t="n">
         <v>1820</v>
       </c>
       <c r="T11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12">
@@ -791,25 +791,25 @@
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>974.83</v>
+        <v>976.66</v>
       </c>
       <c r="E12" t="n">
         <v>90</v>
       </c>
       <c r="F12" t="n">
-        <v>3475.24</v>
+        <v>3252.64</v>
       </c>
       <c r="H12" t="n">
         <v>90</v>
       </c>
       <c r="I12" t="n">
-        <v>8006.58</v>
+        <v>7414.26</v>
       </c>
       <c r="K12" t="n">
         <v>90</v>
       </c>
       <c r="L12" t="n">
-        <v>3539.24</v>
+        <v>3276.38</v>
       </c>
     </row>
     <row r="13">
@@ -817,40 +817,40 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1107.76</v>
+        <v>1109.84</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>3861.38</v>
+        <v>3614.04</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>8896.200000000001</v>
+        <v>8238.07</v>
       </c>
       <c r="K13" t="n">
         <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>3932.49</v>
+        <v>3640.42</v>
       </c>
       <c r="P13" t="n">
-        <v>17797.83</v>
+        <v>16602.37</v>
       </c>
       <c r="Q13" t="n">
         <v>2070</v>
       </c>
       <c r="R13" t="n">
-        <v>8.6</v>
+        <v>8.02</v>
       </c>
       <c r="S13" t="n">
         <v>1820</v>
       </c>
       <c r="T13" t="n">
-        <v>9.779999999999999</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -863,25 +863,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>26.85</v>
+        <v>37.27</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>30.69</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="15">
@@ -894,25 +894,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>26.85</v>
+        <v>37.27</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>30.69</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="16">
@@ -925,25 +925,25 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>885.98</v>
+        <v>1229.89</v>
       </c>
       <c r="E16" t="n">
         <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>3675.19</v>
+        <v>4047.01</v>
       </c>
       <c r="H16" t="n">
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>10031</v>
+        <v>12383.63</v>
       </c>
       <c r="K16" t="n">
         <v>30</v>
       </c>
       <c r="L16" t="n">
-        <v>920.77</v>
+        <v>1140.63</v>
       </c>
     </row>
     <row r="17">
@@ -956,25 +956,25 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>315.02</v>
+        <v>346.89</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>859.8</v>
+        <v>1061.45</v>
       </c>
       <c r="K17" t="n">
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>306.92</v>
+        <v>380.21</v>
       </c>
     </row>
     <row r="18">
@@ -987,25 +987,25 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>107.39</v>
+        <v>149.08</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>420.02</v>
+        <v>462.52</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1146.4</v>
+        <v>1415.27</v>
       </c>
       <c r="K18" t="n">
         <v>16</v>
       </c>
       <c r="L18" t="n">
-        <v>491.08</v>
+        <v>608.34</v>
       </c>
     </row>
     <row r="19">
@@ -1013,40 +1013,40 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>1100.77</v>
+        <v>1528.05</v>
       </c>
       <c r="E19" t="n">
         <v>44</v>
       </c>
       <c r="F19" t="n">
-        <v>4620.25</v>
+        <v>5087.68</v>
       </c>
       <c r="H19" t="n">
         <v>44</v>
       </c>
       <c r="I19" t="n">
-        <v>12610.4</v>
+        <v>15567.99</v>
       </c>
       <c r="K19" t="n">
         <v>58</v>
       </c>
       <c r="L19" t="n">
-        <v>1780.15</v>
+        <v>2205.22</v>
       </c>
       <c r="P19" t="n">
-        <v>20111.57</v>
+        <v>24388.94</v>
       </c>
       <c r="Q19" t="n">
         <v>2070</v>
       </c>
       <c r="R19" t="n">
-        <v>9.720000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="S19" t="n">
         <v>1820</v>
       </c>
       <c r="T19" t="n">
-        <v>11.05</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="20">
@@ -1059,19 +1059,19 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>429.56</v>
+        <v>596.3099999999999</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>1890.1</v>
+        <v>2081.32</v>
       </c>
       <c r="H20" t="n">
         <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>5158.8</v>
+        <v>6368.72</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1080,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7478.46</v>
+        <v>9046.35</v>
       </c>
       <c r="Q20" t="n">
         <v>2070</v>
       </c>
       <c r="R20" t="n">
-        <v>3.61</v>
+        <v>4.37</v>
       </c>
       <c r="S20" t="n">
         <v>1820</v>
       </c>
       <c r="T20" t="n">
-        <v>4.11</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="21">
@@ -1105,40 +1105,40 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>268.48</v>
+        <v>372.69</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>1050.06</v>
+        <v>1156.29</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>2866</v>
+        <v>3538.18</v>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>399</v>
+        <v>494.27</v>
       </c>
       <c r="P21" t="n">
-        <v>4583.54</v>
+        <v>5561.43</v>
       </c>
       <c r="Q21" t="n">
         <v>2070</v>
       </c>
       <c r="R21" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="S21" t="n">
         <v>1820</v>
       </c>
       <c r="T21" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="22">
@@ -1151,40 +1151,40 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>161.09</v>
+        <v>223.62</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>525.03</v>
+        <v>578.14</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>1433</v>
+        <v>1769.09</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>92.08</v>
+        <v>114.06</v>
       </c>
       <c r="P22" t="n">
-        <v>2211.2</v>
+        <v>2684.91</v>
       </c>
       <c r="Q22" t="n">
         <v>2070</v>
       </c>
       <c r="R22" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="S22" t="n">
         <v>1820</v>
       </c>
       <c r="T22" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23">
@@ -1197,19 +1197,19 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>210.01</v>
+        <v>231.26</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>573.2</v>
+        <v>707.64</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.9100000000001</v>
+        <v>1013.44</v>
       </c>
       <c r="Q23" t="n">
         <v>2070</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="S23" t="n">
         <v>1820</v>
       </c>
       <c r="T23" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1243,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.54000000000001</v>
+        <v>111.81</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>420.02</v>
+        <v>462.52</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1146.4</v>
+        <v>1415.27</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1264,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1646.96</v>
+        <v>1989.6</v>
       </c>
       <c r="Q24" t="n">
         <v>2070</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="S24" t="n">
         <v>1820</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="25">
@@ -1289,40 +1289,40 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>26.85</v>
+        <v>37.27</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>30.69</v>
+        <v>38.02</v>
       </c>
       <c r="P25" t="n">
-        <v>449.15</v>
+        <v>544.74</v>
       </c>
       <c r="Q25" t="n">
         <v>2070</v>
       </c>
       <c r="R25" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="S25" t="n">
         <v>1820</v>
       </c>
       <c r="T25" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26">
@@ -1335,40 +1335,40 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>26.85</v>
+        <v>37.27</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>61.38</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>479.84</v>
+        <v>582.76</v>
       </c>
       <c r="Q26" t="n">
         <v>2070</v>
       </c>
       <c r="R26" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="S26" t="n">
         <v>1820</v>
       </c>
       <c r="T26" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="27">
@@ -1381,40 +1381,40 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>315.02</v>
+        <v>346.89</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>859.8</v>
+        <v>1061.45</v>
       </c>
       <c r="K27" t="n">
         <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>306.92</v>
+        <v>380.21</v>
       </c>
       <c r="P27" t="n">
-        <v>1535.44</v>
+        <v>1863.09</v>
       </c>
       <c r="Q27" t="n">
         <v>2070</v>
       </c>
       <c r="R27" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="S27" t="n">
         <v>1820</v>
       </c>
       <c r="T27" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="28">
@@ -1427,40 +1427,40 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>210.01</v>
+        <v>231.26</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>573.2</v>
+        <v>707.64</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>61.38</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>898.2900000000001</v>
+        <v>1089.48</v>
       </c>
       <c r="Q28" t="n">
         <v>2070</v>
       </c>
       <c r="R28" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="S28" t="n">
         <v>1820</v>
       </c>
       <c r="T28" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
@@ -1473,40 +1473,40 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>61.38</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>506.6900000000001</v>
+        <v>620.03</v>
       </c>
       <c r="Q29" t="n">
         <v>2070</v>
       </c>
       <c r="R29" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="S29" t="n">
         <v>1820</v>
       </c>
       <c r="T29" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30">
@@ -1519,40 +1519,40 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>30.69</v>
+        <v>38.02</v>
       </c>
       <c r="P30" t="n">
-        <v>476.0000000000001</v>
+        <v>582.01</v>
       </c>
       <c r="Q30" t="n">
         <v>2070</v>
       </c>
       <c r="R30" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="S30" t="n">
         <v>1820</v>
       </c>
       <c r="T30" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31">
@@ -1565,40 +1565,40 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>30.69</v>
+        <v>38.02</v>
       </c>
       <c r="P31" t="n">
-        <v>476.0000000000001</v>
+        <v>582.01</v>
       </c>
       <c r="Q31" t="n">
         <v>2070</v>
       </c>
       <c r="R31" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="S31" t="n">
         <v>1820</v>
       </c>
       <c r="T31" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32">
@@ -1611,19 +1611,19 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>53.7</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>105.01</v>
+        <v>115.63</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>286.6</v>
+        <v>353.82</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1632,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>445.3100000000001</v>
+        <v>543.99</v>
       </c>
       <c r="Q32" t="n">
         <v>2070</v>
       </c>
       <c r="R32" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="S32" t="n">
         <v>1820</v>
       </c>
       <c r="T32" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
@@ -1657,40 +1657,40 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>214.78</v>
+        <v>298.16</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>630.03</v>
+        <v>693.77</v>
       </c>
       <c r="H33" t="n">
         <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>1719.6</v>
+        <v>2122.91</v>
       </c>
       <c r="K33" t="n">
         <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>214.85</v>
+        <v>266.15</v>
       </c>
       <c r="P33" t="n">
-        <v>2779.26</v>
+        <v>3380.99</v>
       </c>
       <c r="Q33" t="n">
         <v>1830</v>
       </c>
       <c r="R33" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
         <v>1610</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34">
@@ -1698,57 +1698,57 @@
         <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>1584.05</v>
+        <v>2198.909999999999</v>
       </c>
       <c r="E34" t="n">
         <v>56</v>
       </c>
       <c r="F34" t="n">
-        <v>5880.340000000001</v>
+        <v>6475.230000000001</v>
       </c>
       <c r="H34" t="n">
         <v>56</v>
       </c>
       <c r="I34" t="n">
-        <v>16049.6</v>
+        <v>19813.82</v>
       </c>
       <c r="K34" t="n">
         <v>42</v>
       </c>
       <c r="L34" t="n">
-        <v>1289.06</v>
+        <v>1596.87</v>
       </c>
       <c r="P34" t="n">
-        <v>24803.05000000001</v>
+        <v>30084.83</v>
       </c>
       <c r="Q34" t="n">
         <v>2070</v>
       </c>
       <c r="R34" t="n">
-        <v>11.98</v>
+        <v>14.53</v>
       </c>
       <c r="S34" t="n">
         <v>1820</v>
       </c>
       <c r="T34" t="n">
-        <v>13.63</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="35">
       <c r="P35" t="n">
-        <v>20578.76</v>
+        <v>21832.22</v>
       </c>
       <c r="Q35" t="n">
         <v>2070</v>
       </c>
       <c r="R35" t="n">
-        <v>9.94</v>
+        <v>10.55</v>
       </c>
       <c r="S35" t="n">
         <v>1820</v>
       </c>
       <c r="T35" t="n">
-        <v>11.31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1771,10 +1771,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -1790,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -1894,19 +1894,76 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Кузнечно-рессорный</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>21</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Медницкий</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Сварочный</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Малярный</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>30</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>15</v>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1980,57 +2037,57 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅2⋅0.85⋅1.4⋅1.0⋅1⋅1.1=8</t>
+          <t>0.1⋅29⋅2⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅1.5⋅0.85⋅1.4⋅1.0⋅1⋅1.1=6</t>
+          <t>0.1⋅29⋅1.5⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅1.5⋅0.85⋅1.4⋅1.0⋅1⋅1.1=6</t>
+          <t>0.1⋅29⋅1.5⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 6</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0.4⋅0.85⋅1.4⋅1.0⋅1⋅1.1=2</t>
+          <t>0.1⋅29⋅0.4⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0.1⋅0.85⋅1.4⋅1.0⋅1⋅1.1=1</t>
+          <t>0.1⋅29⋅0.1⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0.15⋅0.85⋅1.4⋅1.0⋅1⋅1.1=1</t>
+          <t>0.1⋅29⋅0.15⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0⋅0.85⋅1.4⋅1.0⋅1⋅1.1=1</t>
+          <t>0.1⋅29⋅0⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0.2⋅0.85⋅1.4⋅1.0⋅1⋅1.1=1</t>
+          <t>0.1⋅29⋅0.2⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅1.6⋅0.85⋅1.4⋅1.0⋅1⋅1.1=6</t>
+          <t>0.1⋅29⋅1.6⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 6</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅4⋅0.85⋅1.4⋅1.0⋅1⋅1.1=15</t>
+          <t>0.1⋅29⋅4⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 15</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0.1⋅29⋅0.4⋅0.85⋅1.4⋅1.0⋅1⋅1.1=2</t>
+          <t>0.1⋅29⋅0.4⋅0.85⋅1.4⋅1.0⋅1⋅1.1 = 2</t>
         </is>
       </c>
     </row>
@@ -2042,57 +2099,57 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅4⋅0.8⋅1.15⋅0.8⋅1⋅1.1=40</t>
+          <t>0.1⋅124⋅4⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 40</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅2.5⋅0.8⋅1.15⋅0.8⋅1⋅1.1=25</t>
+          <t>0.1⋅124⋅2.5⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 25</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅1.6⋅0.8⋅1.15⋅0.8⋅1⋅1.1=16</t>
+          <t>0.1⋅124⋅1.6⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 16</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.5⋅0.8⋅1.15⋅0.8⋅1⋅1.1=5</t>
+          <t>0.1⋅124⋅0.5⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 5</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.15⋅0.8⋅1.15⋅0.8⋅1⋅1.1=2</t>
+          <t>0.1⋅124⋅0.15⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.15⋅0.8⋅1.15⋅0.8⋅1⋅1.1=2</t>
+          <t>0.1⋅124⋅0.15⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.3⋅0.8⋅1.15⋅0.8⋅1⋅1.1=3</t>
+          <t>0.1⋅124⋅0.3⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 3</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.25⋅0.8⋅1.15⋅0.8⋅1⋅1.1=3</t>
+          <t>0.1⋅124⋅0.25⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 3</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅2.4⋅0.8⋅1.15⋅0.8⋅1⋅1.1=24</t>
+          <t>0.1⋅124⋅2.4⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 24</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅6⋅0.8⋅1.15⋅0.8⋅1⋅1.1=60</t>
+          <t>0.1⋅124⋅6⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 60</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>0.1⋅124⋅0.8⋅0.8⋅1.15⋅0.8⋅1⋅1.1=8</t>
+          <t>0.1⋅124⋅0.8⋅0.8⋅1.15⋅0.8⋅1⋅1.1 = 8</t>
         </is>
       </c>
     </row>
@@ -2104,57 +2161,57 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅4⋅0.85⋅1.15⋅1.3⋅1⋅1.1=81</t>
+          <t>0.1⋅144⋅4⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 81</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅2.5⋅0.85⋅1.15⋅1.3⋅1⋅1.1=50</t>
+          <t>0.1⋅144⋅2.5⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 50</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅1.6⋅0.85⋅1.15⋅1.3⋅1⋅1.1=32</t>
+          <t>0.1⋅144⋅1.6⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 32</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.5⋅0.85⋅1.15⋅1.3⋅1⋅1.1=10</t>
+          <t>0.1⋅144⋅0.5⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 10</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.15⋅0.85⋅1.15⋅1.3⋅1⋅1.1=3</t>
+          <t>0.1⋅144⋅0.15⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 3</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.15⋅0.85⋅1.15⋅1.3⋅1⋅1.1=3</t>
+          <t>0.1⋅144⋅0.15⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 3</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.3⋅0.85⋅1.15⋅1.3⋅1⋅1.1=6</t>
+          <t>0.1⋅144⋅0.3⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 6</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.25⋅0.85⋅1.15⋅1.3⋅1⋅1.1=5</t>
+          <t>0.1⋅144⋅0.25⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 5</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅2.4⋅0.85⋅1.15⋅1.3⋅1⋅1.1=48</t>
+          <t>0.1⋅144⋅2.4⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 48</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅6⋅0.85⋅1.15⋅1.3⋅1⋅1.1=121</t>
+          <t>0.1⋅144⋅6⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 121</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0.1⋅144⋅0.8⋅0.85⋅1.15⋅1.3⋅1⋅1.1=16</t>
+          <t>0.1⋅144⋅0.8⋅0.85⋅1.15⋅1.3⋅1⋅1.1 = 16</t>
         </is>
       </c>
     </row>
@@ -2166,57 +2223,57 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅1⋅0.85⋅1.2⋅1.5⋅1⋅1.1=10</t>
+          <t>0.1⋅61⋅1⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0⋅0.85⋅1.2⋅1.5⋅1⋅1.1=1</t>
+          <t>0.1⋅61⋅0⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.3⋅0.85⋅1.2⋅1.5⋅1⋅1.1=3</t>
+          <t>0.1⋅61⋅0.3⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1=2</t>
+          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.05⋅0.85⋅1.2⋅1.5⋅1⋅1.1=1</t>
+          <t>0.1⋅61⋅0.05⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.1⋅0.85⋅1.2⋅1.5⋅1⋅1.1=1</t>
+          <t>0.1⋅61⋅0.1⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 1</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1=2</t>
+          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.15⋅0.85⋅1.2⋅1.5⋅1⋅1.1=2</t>
+          <t>0.1⋅61⋅0.15⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 2</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅1.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1=12</t>
+          <t>0.1⋅61⋅1.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 12</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅2⋅0.85⋅1.2⋅1.5⋅1⋅1.1=21</t>
+          <t>0.1⋅61⋅2⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 21</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1=2</t>
+          <t>0.1⋅61⋅0.2⋅0.85⋅1.2⋅1.5⋅1⋅1.1 = 2</t>
         </is>
       </c>
     </row>

--- a/2tecnolog/tables.xlsx
+++ b/2tecnolog/tables.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:T110"/>
+  <dimension ref="A2:T155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,22 +630,22 @@
         <v>138.33</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>721.83</v>
+        <v>288.73</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>2078.96</v>
+        <v>831.58</v>
       </c>
       <c r="K8" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>729.58</v>
+        <v>116.73</v>
       </c>
     </row>
     <row r="9">
@@ -661,37 +661,37 @@
         <v>783.86</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>2165.49</v>
+        <v>2598.59</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I9" t="n">
-        <v>6236.87</v>
+        <v>7484.25</v>
       </c>
       <c r="K9" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="L9" t="n">
-        <v>2188.73</v>
+        <v>2801.58</v>
       </c>
       <c r="P9" t="n">
-        <v>4213.440000000001</v>
+        <v>1920.11</v>
       </c>
       <c r="Q9" t="n">
         <v>2070</v>
       </c>
       <c r="R9" t="n">
-        <v>2.04</v>
+        <v>0.93</v>
       </c>
       <c r="S9" t="n">
         <v>1820</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="10">
@@ -760,25 +760,25 @@
         <v>823.8099999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>364.04</v>
+        <v>72.81</v>
       </c>
       <c r="P11" t="n">
-        <v>2227.17</v>
+        <v>1935.94</v>
       </c>
       <c r="Q11" t="n">
         <v>2070</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S11" t="n">
         <v>1820</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="12">
@@ -806,10 +806,10 @@
         <v>7414.26</v>
       </c>
       <c r="K12" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L12" t="n">
-        <v>3276.38</v>
+        <v>3567.61</v>
       </c>
     </row>
     <row r="13">
@@ -1736,19 +1736,19 @@
     </row>
     <row r="35">
       <c r="P35" t="n">
-        <v>21832.22</v>
+        <v>22349.13</v>
       </c>
       <c r="Q35" t="n">
         <v>2070</v>
       </c>
       <c r="R35" t="n">
-        <v>10.55</v>
+        <v>10.8</v>
       </c>
       <c r="S35" t="n">
         <v>1820</v>
       </c>
       <c r="T35" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="38">
@@ -1799,172 +1799,134 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Электротехнический</t>
+          <t>Аккумуляторный</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C41" t="n">
         <v>15</v>
       </c>
-      <c r="C41" t="n">
-        <v>9</v>
-      </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Аккумуляторный</t>
+          <t>Топливной аппаратуры</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Топливной аппаратуры</t>
+          <t>Шиномонтажный</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Шиномонтажный</t>
+          <t>Кузнечно-рессорный</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Вулканизационный</t>
+          <t>Сварочный</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кузнечно-рессорный</t>
+          <t>Жестяницкий</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Медницкий</t>
+          <t>Малярный</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C47" t="n">
         <v>15</v>
       </c>
-      <c r="C47" t="n">
-        <v>9</v>
-      </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Сварочный</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>15</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Малярный</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>30</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -2303,6 +2265,1370 @@
         <is>
           <t>10 + 1 + 3 + 2 + 1 + 2 + 2 + 12 + 2 = 35</t>
         </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>29</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>124</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>144</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>29</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>124</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>144</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>61</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>29</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>124</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>144</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>61</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>29</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>144</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>61</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>29</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>124</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>144</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>61</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>29</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>124</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>144</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>61</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>29</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>124</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>144</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>61</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>29</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>124</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>144</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>61</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>29</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>124</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>61</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>29</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>124</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>144</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>61</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>УАЗ-3163</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>29</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43502</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>124</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>КАМАЗ-43118</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>144</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ПОЛИТРАНС-94163</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>61</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
